--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>10.10.51.1</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>4x1(3), 4x2(2)</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>A1 - B9</t>
   </si>
 </sst>
 </file>
@@ -451,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +474,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -476,7 +485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -484,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -492,7 +501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -503,7 +512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -511,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -519,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -530,7 +539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -541,28 +550,37 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10800" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Matryce HD-MD" sheetId="2" r:id="rId2"/>
+    <sheet name="NVX-y" sheetId="4" r:id="rId3"/>
+    <sheet name="Yamaha" sheetId="5" r:id="rId4"/>
+    <sheet name="Panele" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
   <si>
     <t>10.10.51.1</t>
   </si>
@@ -103,18 +105,395 @@
   </si>
   <si>
     <t>A1 - B9</t>
+  </si>
+  <si>
+    <t>Typ matrycy</t>
+  </si>
+  <si>
+    <t>Lokacja</t>
+  </si>
+  <si>
+    <t>Adres IP</t>
+  </si>
+  <si>
+    <t>IP-ID</t>
+  </si>
+  <si>
+    <t>10.10.51.91</t>
+  </si>
+  <si>
+    <t>10.10.51.92</t>
+  </si>
+  <si>
+    <t>10.10.51.93</t>
+  </si>
+  <si>
+    <t>10.10.51.94</t>
+  </si>
+  <si>
+    <t>10.10.51.95</t>
+  </si>
+  <si>
+    <t>10.10.51.96</t>
+  </si>
+  <si>
+    <t>10.10.51.97</t>
+  </si>
+  <si>
+    <t>10.10.51.98</t>
+  </si>
+  <si>
+    <t>10.10.51.99</t>
+  </si>
+  <si>
+    <t>HD-MD4x1-4k-E</t>
+  </si>
+  <si>
+    <t>00.20 - Sala 1CE</t>
+  </si>
+  <si>
+    <t>HD-MD4x2-4k-E</t>
+  </si>
+  <si>
+    <t>00.23 - Gabinet Tomka N</t>
+  </si>
+  <si>
+    <t>01.15 - Konferencyjna</t>
+  </si>
+  <si>
+    <t>02.16 - Konferencyjna 5</t>
+  </si>
+  <si>
+    <t>02.22 - Gabinet Adama</t>
+  </si>
+  <si>
+    <t>10.10.51.10</t>
+  </si>
+  <si>
+    <t>Mój Laptop</t>
+  </si>
+  <si>
+    <t>10.10.51.21</t>
+  </si>
+  <si>
+    <t>10.10.51.22</t>
+  </si>
+  <si>
+    <t>10.10.51.23</t>
+  </si>
+  <si>
+    <t>10.10.51.24</t>
+  </si>
+  <si>
+    <t>10.10.51.25</t>
+  </si>
+  <si>
+    <t>10.10.51.26</t>
+  </si>
+  <si>
+    <t>10.10.51.27</t>
+  </si>
+  <si>
+    <t>10.10.51.28</t>
+  </si>
+  <si>
+    <t>10.10.51.29</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Rola</t>
+  </si>
+  <si>
+    <t>00.12 - Sala Konf. Duża</t>
+  </si>
+  <si>
+    <t>FlipTop x2</t>
+  </si>
+  <si>
+    <t>Projektor Sony</t>
+  </si>
+  <si>
+    <t>Projektor Benq</t>
+  </si>
+  <si>
+    <t>Yamaha (audio)</t>
+  </si>
+  <si>
+    <t>Srumień (TX)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>00.10, 00.11 - Sale Średnie 1 i 2</t>
+  </si>
+  <si>
+    <t>10.10.51.30</t>
+  </si>
+  <si>
+    <t>10.10.51.31</t>
+  </si>
+  <si>
+    <t>10.10.51.32</t>
+  </si>
+  <si>
+    <t>10.10.51.33</t>
+  </si>
+  <si>
+    <t>10.10.51.34</t>
+  </si>
+  <si>
+    <t>10.10.51.35</t>
+  </si>
+  <si>
+    <t>10.10.51.36</t>
+  </si>
+  <si>
+    <t>10.10.51.37</t>
+  </si>
+  <si>
+    <t>10.10.51.38</t>
+  </si>
+  <si>
+    <t>10.10.51.39</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>FlipTop TP</t>
+  </si>
+  <si>
+    <t>Fliptop</t>
+  </si>
+  <si>
+    <t>Monitor Sony</t>
+  </si>
+  <si>
+    <t>00.14, 00.15 - Kantyna</t>
+  </si>
+  <si>
+    <t>FloorBox</t>
+  </si>
+  <si>
+    <t>Projektor Benq 4K</t>
+  </si>
+  <si>
+    <t>Projektor Benq FHD</t>
+  </si>
+  <si>
+    <t>Splitter HDMI</t>
+  </si>
+  <si>
+    <t>TX_01</t>
+  </si>
+  <si>
+    <t>RX_01</t>
+  </si>
+  <si>
+    <t>RX_02</t>
+  </si>
+  <si>
+    <t>RX_03</t>
+  </si>
+  <si>
+    <t>TX_02</t>
+  </si>
+  <si>
+    <t>TX_03</t>
+  </si>
+  <si>
+    <t>RX_04</t>
+  </si>
+  <si>
+    <t>RX_05</t>
+  </si>
+  <si>
+    <t>TX_04</t>
+  </si>
+  <si>
+    <t>RX_06</t>
+  </si>
+  <si>
+    <t>RX_07</t>
+  </si>
+  <si>
+    <t>RX_08</t>
+  </si>
+  <si>
+    <t>rtsp://10.10.51.21:554/live.sdp</t>
+  </si>
+  <si>
+    <t>10.10.51.101</t>
+  </si>
+  <si>
+    <t>10.10.51.102</t>
+  </si>
+  <si>
+    <t>10.10.51.103</t>
+  </si>
+  <si>
+    <t>10.10.51.104</t>
+  </si>
+  <si>
+    <t>10.10.51.105</t>
+  </si>
+  <si>
+    <t>10.10.51.106</t>
+  </si>
+  <si>
+    <t>10.10.51.107</t>
+  </si>
+  <si>
+    <t>10.10.51.108</t>
+  </si>
+  <si>
+    <t>10.10.51.109</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>RX-V685</t>
+  </si>
+  <si>
+    <t>04.01 - Showroom</t>
+  </si>
+  <si>
+    <t>10.10.51.81</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>FT-TS600</t>
+  </si>
+  <si>
+    <t>TSW-560P</t>
+  </si>
+  <si>
+    <t>TSW-760</t>
+  </si>
+  <si>
+    <t>00.12 - Sala konf duża</t>
+  </si>
+  <si>
+    <t>00.10, 00.11 - Sale średnie 1,2</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>10.10.51.82</t>
+  </si>
+  <si>
+    <t>10.10.51.83</t>
+  </si>
+  <si>
+    <t>10.10.51.84</t>
+  </si>
+  <si>
+    <t>10.10.51.85</t>
+  </si>
+  <si>
+    <t>Zaadresowane?</t>
+  </si>
+  <si>
+    <t>TAK</t>
+  </si>
+  <si>
+    <t>NIE</t>
+  </si>
+  <si>
+    <t>Zaadresowane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,11 +533,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -460,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,92 +883,108 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -591,24 +996,748 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5">
+        <v>91</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>93</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="5">
+        <v>94</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5">
+        <v>95</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10800" windowHeight="10155"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="10800" windowHeight="10155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="152">
   <si>
     <t>10.10.51.1</t>
   </si>
@@ -236,9 +236,6 @@
     <t>FlipTop x2</t>
   </si>
   <si>
-    <t>Projektor Sony</t>
-  </si>
-  <si>
     <t>Projektor Benq</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>Zaadresowane</t>
+  </si>
+  <si>
+    <t>źle opisane pudło</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1026,7 +1026,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1060,7 +1060,7 @@
         <v>45</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1142,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,10 +1157,11 @@
     <col min="5" max="5" width="19.85546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="17.85546875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -1177,13 +1178,13 @@
         <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>60</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>70</v>
@@ -1200,13 +1201,13 @@
         <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
@@ -1214,22 +1215,25 @@
         <v>61</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
@@ -1237,22 +1241,22 @@
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>54</v>
       </c>
@@ -1260,22 +1264,22 @@
         <v>63</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1283,19 +1287,19 @@
         <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
@@ -1303,19 +1307,19 @@
         <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -1323,22 +1327,22 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -1346,22 +1350,22 @@
         <v>67</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
@@ -1369,120 +1373,120 @@
         <v>68</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="F13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1517,7 +1521,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>30</v>
@@ -1525,89 +1529,89 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1642,98 +1646,98 @@
         <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -14,13 +14,14 @@
     <sheet name="Panele" sheetId="6" r:id="rId5"/>
     <sheet name="Matryce HD-MD" sheetId="2" r:id="rId6"/>
     <sheet name="Yamaha" sheetId="5" r:id="rId7"/>
+    <sheet name="InterSysComm" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="302">
   <si>
     <t>Brama</t>
   </si>
@@ -905,6 +906,27 @@
   </si>
   <si>
     <t>Różne</t>
+  </si>
+  <si>
+    <t>00.11</t>
+  </si>
+  <si>
+    <t>Program A</t>
+  </si>
+  <si>
+    <t>Program B</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>0A</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1023,6 +1045,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1332,7 +1363,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1556,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1606,7 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>284</v>
       </c>
     </row>
@@ -1595,7 +1626,7 @@
       <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1613,7 +1644,7 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1631,7 +1662,7 @@
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1649,7 +1680,7 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1662,12 +1693,12 @@
         <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1685,7 +1716,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1698,12 +1729,12 @@
         <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>295</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1721,7 +1752,7 @@
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -1739,7 +1770,7 @@
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1757,7 +1788,7 @@
       <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1775,7 +1806,7 @@
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1836,7 +1867,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1917,7 @@
       <c r="E3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>285</v>
       </c>
     </row>
@@ -1906,7 +1937,7 @@
       <c r="E4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>284</v>
       </c>
     </row>
@@ -1924,9 +1955,9 @@
         <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F5" s="12"/>
+        <v>295</v>
+      </c>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1944,7 +1975,7 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1962,7 +1993,7 @@
       <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1980,7 +2011,7 @@
       <c r="E8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1998,7 +2029,7 @@
       <c r="E9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2016,7 +2047,7 @@
       <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2036,7 +2067,7 @@
       <c r="E11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2054,7 +2085,7 @@
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2072,7 +2103,7 @@
       <c r="E13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2090,7 +2121,7 @@
       <c r="E14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2108,7 +2139,7 @@
       <c r="E15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2128,7 +2159,7 @@
       <c r="E16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2146,7 +2177,7 @@
       <c r="E17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="15" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2166,7 +2197,7 @@
       <c r="E18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2184,7 +2215,7 @@
       <c r="E19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2202,7 +2233,7 @@
       <c r="E20" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -2220,7 +2251,7 @@
       <c r="E21" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -2258,7 +2289,7 @@
       <c r="E23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="15" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2278,7 +2309,7 @@
       <c r="E24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2296,7 +2327,7 @@
       <c r="E25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2376,7 +2407,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,7 +2457,7 @@
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2446,7 +2477,7 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2464,7 +2495,7 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2482,7 +2513,7 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2500,7 +2531,7 @@
       <c r="E7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="13" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2540,7 +2571,7 @@
       <c r="E9" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="15" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2560,7 +2591,7 @@
       <c r="E10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2597,7 +2628,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2678,7 @@
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2667,7 +2698,7 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2685,7 +2716,7 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2723,7 +2754,7 @@
       <c r="E7" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2761,7 +2792,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,7 +2842,7 @@
       <c r="E3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2831,7 +2862,7 @@
       <c r="E4" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2869,7 +2900,7 @@
       <c r="E6" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2889,7 +2920,7 @@
       <c r="E7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2926,7 +2957,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,7 +3000,7 @@
       <c r="D3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3020,7 +3051,7 @@
       <c r="D6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3069,4 +3100,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="-15" windowWidth="9810" windowHeight="12825"/>
+    <workbookView xWindow="19005" yWindow="-15" windowWidth="9810" windowHeight="12825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -1362,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1556,7 +1556,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
@@ -2407,7 +2407,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="-15" windowWidth="9810" windowHeight="12825" activeTab="2"/>
+    <workbookView xWindow="19005" yWindow="-15" windowWidth="9810" windowHeight="12825"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="304">
   <si>
     <t>Brama</t>
   </si>
@@ -927,6 +927,12 @@
   </si>
   <si>
     <t>0A</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>TS600-04</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1866,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F14"/>
     </sheetView>
   </sheetViews>
@@ -2628,7 +2634,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,8 +2765,23 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>273</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="-15" windowWidth="9810" windowHeight="12825"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="305">
   <si>
     <t>Brama</t>
   </si>
@@ -933,6 +933,9 @@
   </si>
   <si>
     <t>TS600-04</t>
+  </si>
+  <si>
+    <t>A0</t>
   </si>
 </sst>
 </file>
@@ -980,7 +983,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,6 +1008,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1018,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1057,6 +1066,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1366,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1442,7 @@
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1491,12 +1512,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1506,12 +1527,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1520,12 +1541,15 @@
       <c r="C20" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>279</v>
       </c>
@@ -1536,11 +1560,11 @@
         <v>294</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>281</v>
       </c>
@@ -1562,7 +1586,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1636,7 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>284</v>
       </c>
     </row>
@@ -1632,7 +1656,7 @@
       <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1650,7 +1674,7 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1668,7 +1692,7 @@
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1686,7 +1710,7 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1704,7 +1728,7 @@
       <c r="E8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1722,7 +1746,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1740,7 +1764,7 @@
       <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1758,10 +1782,10 @@
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1776,7 +1800,7 @@
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1794,7 +1818,7 @@
       <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1812,7 +1836,7 @@
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1873,7 +1897,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1952,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1943,7 +1967,7 @@
       <c r="E4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="18" t="s">
         <v>284</v>
       </c>
     </row>
@@ -1963,7 +1987,7 @@
       <c r="E5" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -1981,7 +2005,7 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -1999,7 +2023,7 @@
       <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2017,7 +2041,7 @@
       <c r="E8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2035,7 +2059,7 @@
       <c r="E9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2053,7 +2077,7 @@
       <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="18" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2073,7 +2097,7 @@
       <c r="E11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2091,7 +2115,7 @@
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2109,7 +2133,7 @@
       <c r="E13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2127,7 +2151,7 @@
       <c r="E14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2145,7 +2169,7 @@
       <c r="E15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="19" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2165,7 +2189,7 @@
       <c r="E16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2183,7 +2207,7 @@
       <c r="E17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="19" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2203,7 +2227,7 @@
       <c r="E18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -2221,7 +2245,7 @@
       <c r="E19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -2239,25 +2263,25 @@
       <c r="E20" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
@@ -2295,7 +2319,7 @@
       <c r="E23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="19" t="s">
         <v>291</v>
       </c>
     </row>
@@ -2315,7 +2339,7 @@
       <c r="E24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -2333,7 +2357,7 @@
       <c r="E25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -2413,7 +2437,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,7 +2472,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2463,7 +2487,7 @@
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2483,7 +2507,7 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2501,7 +2525,7 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2519,7 +2543,7 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2577,7 +2601,7 @@
       <c r="E9" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2597,7 +2621,7 @@
       <c r="E10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2633,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2669,7 +2693,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2684,7 +2708,7 @@
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2704,7 +2728,7 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2722,7 +2746,7 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2863,7 +2887,7 @@
       <c r="E3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="18" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2883,7 +2907,7 @@
       <c r="E4" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -2921,7 +2945,7 @@
       <c r="E6" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="19" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2941,7 +2965,7 @@
       <c r="E7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="4"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="307">
   <si>
     <t>Brama</t>
   </si>
@@ -936,6 +936,12 @@
   </si>
   <si>
     <t>A0</t>
+  </si>
+  <si>
+    <t>Do wywalenia - nie sterujemy</t>
+  </si>
+  <si>
+    <t>Sprawdzić, czemu nie pinga jak jest wyłączony</t>
   </si>
 </sst>
 </file>
@@ -983,7 +989,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -993,12 +999,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,9 +1042,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1065,25 +1062,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1418,34 +1421,34 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1453,14 +1456,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1468,14 +1471,14 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1483,14 +1486,14 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1498,14 +1501,14 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1513,14 +1516,14 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1528,14 +1531,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1546,14 +1549,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>280</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1561,14 +1564,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1621,7 +1624,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1636,12 +1639,12 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1656,10 +1659,10 @@
       <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1674,10 +1677,10 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1692,10 +1695,10 @@
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1710,10 +1713,10 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1728,10 +1731,10 @@
       <c r="E8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1746,10 +1749,10 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1764,7 +1767,7 @@
       <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1782,10 +1785,10 @@
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1800,7 +1803,7 @@
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1818,7 +1821,7 @@
       <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1836,7 +1839,7 @@
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1894,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1911,8 @@
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="42.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1947,12 +1951,12 @@
       <c r="E3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1967,7 +1971,7 @@
       <c r="E4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>284</v>
       </c>
     </row>
@@ -1987,7 +1991,9 @@
       <c r="E5" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2005,7 +2011,9 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2023,7 +2031,9 @@
       <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -2041,7 +2051,9 @@
       <c r="E8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -2059,7 +2071,9 @@
       <c r="E9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -2077,7 +2091,7 @@
       <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="20" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2097,7 +2111,9 @@
       <c r="E11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="20" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -2115,7 +2131,9 @@
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="20" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -2133,7 +2151,9 @@
       <c r="E13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="20" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2151,7 +2171,9 @@
       <c r="E14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="20" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -2169,7 +2191,7 @@
       <c r="E15" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2189,9 +2211,11 @@
       <c r="E16" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>159</v>
       </c>
@@ -2207,11 +2231,11 @@
       <c r="E17" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>160</v>
       </c>
@@ -2227,9 +2251,11 @@
       <c r="E18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>161</v>
       </c>
@@ -2245,9 +2271,11 @@
       <c r="E19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>162</v>
       </c>
@@ -2263,27 +2291,34 @@
       <c r="E20" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="F20" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>164</v>
       </c>
@@ -2303,7 +2338,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>165</v>
       </c>
@@ -2319,11 +2354,11 @@
       <c r="E23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="18" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>166</v>
       </c>
@@ -2339,9 +2374,11 @@
       <c r="E24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>167</v>
       </c>
@@ -2357,10 +2394,12 @@
       <c r="E25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="F25" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2378,8 +2417,11 @@
       <c r="F26" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>261</v>
       </c>
@@ -2387,7 +2429,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>262</v>
       </c>
@@ -2395,7 +2437,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>263</v>
       </c>
@@ -2403,7 +2445,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>264</v>
       </c>
@@ -2411,7 +2453,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>265</v>
       </c>
@@ -2420,13 +2462,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="F23:F25"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2437,7 +2472,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,7 +2507,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>218</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2487,7 +2522,7 @@
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2507,7 +2542,9 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2525,7 +2562,9 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2543,7 +2582,9 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -2561,7 +2602,7 @@
       <c r="E7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="17" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2581,7 +2622,7 @@
       <c r="E8" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="18" t="s">
         <v>290</v>
       </c>
     </row>
@@ -2601,7 +2642,7 @@
       <c r="E9" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2621,7 +2662,9 @@
       <c r="E10" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -2639,15 +2682,11 @@
       <c r="E11" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="18" t="s">
         <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="F9:F10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2657,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2732,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2708,7 +2747,7 @@
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2728,7 +2767,9 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
@@ -2746,7 +2787,9 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="20" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2769,7 +2812,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2784,7 +2827,7 @@
       <c r="E7" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>293</v>
       </c>
     </row>
@@ -2824,9 +2867,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F3:F5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2837,7 +2877,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2872,7 +2912,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="2">
@@ -2887,12 +2927,12 @@
       <c r="E3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2">
@@ -2907,10 +2947,12 @@
       <c r="E4" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="17" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="2">
@@ -2930,7 +2972,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2">
@@ -2945,12 +2987,12 @@
       <c r="E6" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="2">
@@ -2965,7 +3007,9 @@
       <c r="E7" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="18" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2988,10 +3032,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F6:F7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3002,7 +3042,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3073,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3045,7 +3085,7 @@
       <c r="D3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3056,7 +3096,7 @@
       <c r="B4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>278</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3073,7 +3113,7 @@
       <c r="B5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>278</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3084,7 +3124,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3096,7 +3136,7 @@
       <c r="D6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3157,108 +3197,108 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>293</v>
       </c>
     </row>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="308">
   <si>
     <t>Brama</t>
   </si>
@@ -942,6 +942,9 @@
   </si>
   <si>
     <t>Sprawdzić, czemu nie pinga jak jest wyłączony</t>
+  </si>
+  <si>
+    <t>Serwerownia</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1086,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1392,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1586,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1606,7 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1639,11 +1642,11 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1659,9 +1662,9 @@
       <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1677,9 +1680,9 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1695,9 +1698,12 @@
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="20"/>
+      <c r="G6" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1713,9 +1719,9 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1731,9 +1737,9 @@
       <c r="E8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1749,9 +1755,9 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1767,9 +1773,9 @@
       <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1785,9 +1791,9 @@
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>54</v>
       </c>
@@ -1803,9 +1809,9 @@
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1821,9 +1827,9 @@
       <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
@@ -1839,14 +1845,14 @@
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -1951,7 +1957,7 @@
       <c r="E3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>285</v>
       </c>
     </row>
@@ -1991,7 +1997,7 @@
       <c r="E5" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2011,7 +2017,7 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2031,7 +2037,7 @@
       <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2051,7 +2057,7 @@
       <c r="E8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2071,7 +2077,7 @@
       <c r="E9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2091,7 +2097,7 @@
       <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2111,7 +2117,7 @@
       <c r="E11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2131,7 +2137,7 @@
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2151,7 +2157,7 @@
       <c r="E13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2171,7 +2177,7 @@
       <c r="E14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2542,7 +2548,7 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2562,7 +2568,7 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2582,7 +2588,7 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2767,7 +2773,7 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -2787,7 +2793,7 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3039,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,10 +3058,11 @@
     <col min="3" max="3" width="16.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>86</v>
       </c>
@@ -3088,8 +3095,11 @@
       <c r="E3" s="5" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
@@ -3106,7 +3116,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>88</v>
       </c>
@@ -3123,7 +3133,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>89</v>
       </c>
@@ -3140,7 +3150,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
@@ -3149,7 +3159,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -3165,7 +3175,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="6"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Całość" sheetId="1" r:id="rId1"/>
     <sheet name="NVX-y" sheetId="4" r:id="rId2"/>
     <sheet name="Monitory" sheetId="7" r:id="rId3"/>
     <sheet name="Projektory" sheetId="8" r:id="rId4"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="303">
   <si>
     <t>Brama</t>
   </si>
@@ -512,9 +512,6 @@
     <t>10.10.51.58</t>
   </si>
   <si>
-    <t>10.10.51.59</t>
-  </si>
-  <si>
     <t>10.10.51.60</t>
   </si>
   <si>
@@ -542,9 +539,6 @@
     <t>58</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
@@ -581,9 +575,6 @@
     <t>???</t>
   </si>
   <si>
-    <t>02.32</t>
-  </si>
-  <si>
     <t>02.22</t>
   </si>
   <si>
@@ -656,9 +647,6 @@
     <t>DISP_M-18</t>
   </si>
   <si>
-    <t>DISP_M-19</t>
-  </si>
-  <si>
     <t>DISP_M-20</t>
   </si>
   <si>
@@ -935,16 +923,13 @@
     <t>TS600-04</t>
   </si>
   <si>
-    <t>A0</t>
-  </si>
-  <si>
-    <t>Do wywalenia - nie sterujemy</t>
-  </si>
-  <si>
     <t>Sprawdzić, czemu nie pinga jak jest wyłączony</t>
   </si>
   <si>
     <t>Serwerownia</t>
+  </si>
+  <si>
+    <t>IP-ID A0</t>
   </si>
 </sst>
 </file>
@@ -992,7 +977,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1008,12 +993,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,9 +1050,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,6 +1066,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,10 +1383,12 @@
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1415,15 +1396,15 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1431,11 +1412,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>10</v>
       </c>
@@ -1443,12 +1424,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1457,12 +1438,15 @@
       <c r="C8" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1470,14 +1454,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1485,14 +1469,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1500,14 +1484,14 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1515,70 +1499,73 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>281</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>277</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1591,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1623,7 +1610,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,8 +1629,8 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>284</v>
+      <c r="F3" s="19" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1662,7 +1649,7 @@
       <c r="E4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1680,7 +1667,7 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1698,9 +1685,9 @@
       <c r="E6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19"/>
       <c r="G6" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1719,7 +1706,7 @@
       <c r="E7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1732,12 +1719,12 @@
         <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1755,7 +1742,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1768,12 +1755,12 @@
         <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1791,7 +1778,7 @@
       <c r="E11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -1809,7 +1796,7 @@
       <c r="E12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1827,7 +1814,7 @@
       <c r="E13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1845,7 +1832,7 @@
       <c r="E14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1884,12 +1871,12 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1893,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1949,7 +1936,7 @@
         <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>148</v>
@@ -1957,8 +1944,8 @@
       <c r="E3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>285</v>
+      <c r="F3" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,7 +1956,7 @@
         <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>150</v>
@@ -1977,8 +1964,8 @@
       <c r="E4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>284</v>
+      <c r="F4" s="16" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,16 +1976,16 @@
         <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>284</v>
+        <v>291</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2009,7 +1996,7 @@
         <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>155</v>
@@ -2017,8 +2004,8 @@
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>284</v>
+      <c r="F6" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2029,7 +2016,7 @@
         <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>155</v>
@@ -2037,8 +2024,8 @@
       <c r="E7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>284</v>
+      <c r="F7" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2049,7 +2036,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>155</v>
@@ -2057,8 +2044,8 @@
       <c r="E8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>284</v>
+      <c r="F8" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2069,7 +2056,7 @@
         <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>155</v>
@@ -2077,8 +2064,8 @@
       <c r="E9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>284</v>
+      <c r="F9" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2089,7 +2076,7 @@
         <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>153</v>
@@ -2097,8 +2084,8 @@
       <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>285</v>
+      <c r="F10" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2109,7 +2096,7 @@
         <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>155</v>
@@ -2117,8 +2104,8 @@
       <c r="E11" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>285</v>
+      <c r="F11" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,7 +2116,7 @@
         <v>143</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>155</v>
@@ -2137,8 +2124,8 @@
       <c r="E12" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>285</v>
+      <c r="F12" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2149,7 +2136,7 @@
         <v>144</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>155</v>
@@ -2157,8 +2144,8 @@
       <c r="E13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>285</v>
+      <c r="F13" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2169,7 +2156,7 @@
         <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>155</v>
@@ -2177,8 +2164,8 @@
       <c r="E14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>285</v>
+      <c r="F14" s="18" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2189,16 +2176,16 @@
         <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>290</v>
+        <v>177</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2209,16 +2196,16 @@
         <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>290</v>
+        <v>178</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2226,19 +2213,19 @@
         <v>159</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>291</v>
+        <v>179</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,19 +2233,19 @@
         <v>160</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>291</v>
+        <v>180</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2266,19 +2253,19 @@
         <v>161</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>291</v>
+        <v>181</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2286,185 +2273,170 @@
         <v>162</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>291</v>
+        <v>182</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>305</v>
-      </c>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>291</v>
+        <v>186</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>291</v>
+        <v>187</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>291</v>
+        <v>188</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>168</v>
+      <c r="A26" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2509,187 +2481,187 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>284</v>
+      <c r="F3" s="16" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>284</v>
+      <c r="F4" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>284</v>
+      <c r="F5" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>284</v>
+      <c r="F6" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>285</v>
+        <v>243</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>290</v>
+        <v>246</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>292</v>
+        <v>247</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>292</v>
+      <c r="F10" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>291</v>
+        <v>249</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2734,18 +2706,18 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>108</v>
@@ -2753,8 +2725,8 @@
       <c r="E3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>284</v>
+      <c r="F3" s="16" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2765,7 +2737,7 @@
         <v>111</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>108</v>
@@ -2773,8 +2745,8 @@
       <c r="E4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>284</v>
+      <c r="F4" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2785,7 +2757,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>109</v>
@@ -2793,8 +2765,8 @@
       <c r="E5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>284</v>
+      <c r="F5" s="18" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2805,16 +2777,16 @@
         <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,51 +2797,51 @@
         <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2914,7 +2886,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,16 +2897,16 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>285</v>
+        <v>243</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,16 +2917,16 @@
         <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" s="17" t="s">
         <v>285</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2965,16 +2937,16 @@
         <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2985,16 +2957,16 @@
         <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>292</v>
+        <v>248</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3005,16 +2977,16 @@
         <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>292</v>
+        <v>184</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3047,7 +3019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3076,11 +3048,11 @@
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3093,10 +3065,10 @@
         <v>151</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,13 +3079,13 @@
         <v>96</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,17 +3096,17 @@
         <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>89</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3144,10 +3116,10 @@
         <v>105</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3218,98 +3190,98 @@
         <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="1"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="305">
   <si>
     <t>Brama</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Projektor Benq</t>
   </si>
   <si>
-    <t>Yamaha (audio)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -926,10 +923,19 @@
     <t>Sprawdzić, czemu nie pinga jak jest wyłączony</t>
   </si>
   <si>
-    <t>Serwerownia</t>
-  </si>
-  <si>
     <t>IP-ID A0</t>
+  </si>
+  <si>
+    <t>00.02</t>
+  </si>
+  <si>
+    <t>00.15</t>
+  </si>
+  <si>
+    <t>Yamaha (audio 00.12)</t>
+  </si>
+  <si>
+    <t>IP-ID B0</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1071,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1374,8 +1380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,12 +1402,12 @@
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1436,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>301</v>
@@ -1454,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1484,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1514,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1529,10 +1535,10 @@
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>301</v>
@@ -1544,13 +1550,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>276</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1558,14 +1564,17 @@
       <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>277</v>
+      <c r="A24" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -1576,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1602,7 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
@@ -1610,10 +1619,10 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1621,19 +1630,19 @@
         <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1641,17 +1650,17 @@
         <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1659,17 +1668,17 @@
         <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1677,20 +1686,17 @@
         <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1698,17 +1704,17 @@
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1716,17 +1722,17 @@
         <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1734,17 +1740,17 @@
         <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1752,17 +1758,17 @@
         <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1770,113 +1776,113 @@
         <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E27" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E29" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1899,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1916,376 +1922,376 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2298,145 +2304,145 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2450,7 +2456,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,196 +2478,196 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="F8" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2681,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,151 +2703,151 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>156</v>
+        <v>302</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2877,16 +2883,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,16 +2903,16 @@
         <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,16 +2923,16 @@
         <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2937,16 +2943,16 @@
         <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,16 +2963,16 @@
         <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2977,16 +2983,16 @@
         <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3017,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,7 +3040,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3042,125 +3048,122 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3190,98 +3193,98 @@
         <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="309">
   <si>
     <t>Brama</t>
   </si>
@@ -936,6 +936,18 @@
   </si>
   <si>
     <t>IP-ID B0</t>
+  </si>
+  <si>
+    <t>Multicast Address</t>
+  </si>
+  <si>
+    <t>239.1.1.12</t>
+  </si>
+  <si>
+    <t>239.1.1.22</t>
+  </si>
+  <si>
+    <t>239.1.1.32</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1585,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,11 +1610,11 @@
     <col min="3" max="4" width="8.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="32" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1621,8 +1633,11 @@
       <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>32</v>
       </c>
@@ -1641,8 +1656,11 @@
       <c r="F3" s="20" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1678,7 @@
       </c>
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -1678,7 +1696,7 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1696,7 +1714,7 @@
       </c>
       <c r="F6" s="20"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1731,11 @@
         <v>66</v>
       </c>
       <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1731,8 +1752,11 @@
         <v>67</v>
       </c>
       <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
@@ -1750,7 +1774,7 @@
       </c>
       <c r="F9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1792,7 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1785,8 +1809,11 @@
         <v>69</v>
       </c>
       <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
@@ -1804,7 +1831,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1822,7 +1849,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>55</v>
       </c>
@@ -1840,12 +1867,12 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="1"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1084,6 +1084,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1599,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,7 +1656,7 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="21" t="s">
         <v>279</v>
       </c>
       <c r="G3" s="17" t="s">
@@ -1676,7 +1679,7 @@
       <c r="E4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1694,7 +1697,7 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -1712,7 +1715,7 @@
       <c r="E6" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1730,7 +1733,7 @@
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="17" t="s">
         <v>306</v>
       </c>
@@ -1751,7 +1754,7 @@
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
       <c r="G8" s="17" t="s">
         <v>307</v>
       </c>
@@ -1772,7 +1775,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -1790,10 +1793,10 @@
       <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1808,7 +1811,7 @@
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="17" t="s">
         <v>308</v>
       </c>
@@ -1829,7 +1832,7 @@
       <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -1847,7 +1850,7 @@
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1865,7 +1868,7 @@
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -2482,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="3"/>
+    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -1602,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2485,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2711,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="45" windowWidth="9810" windowHeight="12765" activeTab="1"/>
+    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="329">
   <si>
     <t>Brama</t>
   </si>
@@ -857,9 +857,6 @@
     <t>10.10.51.XXX</t>
   </si>
   <si>
-    <t>rtsp://10.10.51.[ID]:554/live.sdp</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -948,13 +945,76 @@
   </si>
   <si>
     <t>239.1.1.32</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.40.6a</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.1c.26</t>
+  </si>
+  <si>
+    <t>00.10.7f.b2.a4.34</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.32.c4</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.40.7c</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.1f.27</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.23.7e</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.33.33</t>
+  </si>
+  <si>
+    <t>00.10.7f.b6.22.e9</t>
+  </si>
+  <si>
+    <t>00.10.7f.a3.49.11</t>
+  </si>
+  <si>
+    <t>00.10.7f.b9.eb.96</t>
+  </si>
+  <si>
+    <t>00.10.7f.ba.79.0d</t>
+  </si>
+  <si>
+    <t>00.10.7f.a8.99.81</t>
+  </si>
+  <si>
+    <t>00.1a.96.01.01.1c</t>
+  </si>
+  <si>
+    <t>Stream Url</t>
+  </si>
+  <si>
+    <t>rtsp://10.10.51.21:554/live.sdp</t>
+  </si>
+  <si>
+    <t>rtsp://10.10.51.25:554/live.sdp</t>
+  </si>
+  <si>
+    <t>rtsp://10.10.51.26:554/live.sdp</t>
+  </si>
+  <si>
+    <t>rtsp://10.10.51.29:554/live.sdp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1054,11 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF525252"/>
+      <name val="Latoregular"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1027,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,9 +1133,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,6 +1152,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1393,23 +1460,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="26.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -1419,13 +1487,19 @@
       <c r="C1" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -1433,11 +1507,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="10"/>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="10">
         <v>10</v>
       </c>
@@ -1445,12 +1519,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="10"/>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1459,15 +1533,18 @@
       <c r="C8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1475,14 +1552,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -1490,14 +1567,14 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
@@ -1505,14 +1582,14 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -1520,50 +1597,53 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>274</v>
       </c>
@@ -1571,25 +1651,25 @@
         <v>275</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="18" t="s">
         <v>276</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>304</v>
+        <v>278</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1600,24 +1680,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
     <col min="3" max="4" width="8.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="32" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1637,11 +1719,17 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1656,15 +1744,21 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="H3" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1679,10 +1773,13 @@
       <c r="E4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="23"/>
+      <c r="H4" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1697,10 +1794,13 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="F5" s="23"/>
+      <c r="H5" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="20" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1710,15 +1810,18 @@
         <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="H6" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1733,13 +1836,19 @@
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="17" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1749,18 +1858,24 @@
         <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1775,10 +1890,13 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="F9" s="23"/>
+      <c r="H9" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1788,14 +1906,17 @@
         <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="23"/>
+      <c r="H10" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="20" t="s">
         <v>40</v>
       </c>
@@ -1806,18 +1927,24 @@
         <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="F11" s="23"/>
+      <c r="G11" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="20" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1827,15 +1954,18 @@
         <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="23"/>
+      <c r="H12" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1850,10 +1980,13 @@
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="F13" s="23"/>
+      <c r="H13" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1863,56 +1996,49 @@
         <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="23"/>
+      <c r="H14" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -1928,11 +2054,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
@@ -1944,7 +2070,7 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1964,7 +2090,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
@@ -1980,12 +2106,12 @@
       <c r="E3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="F3" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2000,12 +2126,12 @@
       <c r="E4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2018,13 +2144,13 @@
         <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>122</v>
       </c>
@@ -2038,13 +2164,13 @@
         <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>123</v>
       </c>
@@ -2058,13 +2184,13 @@
         <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
@@ -2078,13 +2204,13 @@
         <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>125</v>
       </c>
@@ -2098,13 +2224,13 @@
         <v>154</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>126</v>
       </c>
@@ -2120,11 +2246,11 @@
       <c r="E10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>127</v>
       </c>
@@ -2140,11 +2266,11 @@
       <c r="E11" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>128</v>
       </c>
@@ -2160,11 +2286,11 @@
       <c r="E12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -2180,11 +2306,11 @@
       <c r="E13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>130</v>
       </c>
@@ -2200,11 +2326,11 @@
       <c r="E14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>131</v>
       </c>
@@ -2220,11 +2346,11 @@
       <c r="E15" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
         <v>132</v>
       </c>
@@ -2240,11 +2366,11 @@
       <c r="E16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>158</v>
       </c>
@@ -2260,11 +2386,11 @@
       <c r="E17" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>159</v>
       </c>
@@ -2280,11 +2406,11 @@
       <c r="E18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>160</v>
       </c>
@@ -2300,11 +2426,11 @@
       <c r="E19" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
         <v>161</v>
       </c>
@@ -2320,19 +2446,19 @@
       <c r="E20" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>162</v>
       </c>
@@ -2349,10 +2475,10 @@
         <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>163</v>
       </c>
@@ -2368,11 +2494,11 @@
       <c r="E23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="4" t="s">
         <v>164</v>
       </c>
@@ -2388,11 +2514,11 @@
       <c r="E24" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="4" t="s">
         <v>165</v>
       </c>
@@ -2408,12 +2534,12 @@
       <c r="E25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="F25" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2429,13 +2555,13 @@
         <v>188</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>256</v>
       </c>
@@ -2443,7 +2569,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>257</v>
       </c>
@@ -2451,7 +2577,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>258</v>
       </c>
@@ -2459,7 +2585,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>259</v>
       </c>
@@ -2467,7 +2593,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>260</v>
       </c>
@@ -2486,10 +2612,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
@@ -2500,7 +2626,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2520,8 +2646,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="20" t="s">
         <v>213</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2536,12 +2662,12 @@
       <c r="E3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F3" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="20" t="s">
         <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2556,12 +2682,12 @@
       <c r="E4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
         <v>218</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2574,13 +2700,13 @@
         <v>216</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
@@ -2596,12 +2722,12 @@
       <c r="E6" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="F6" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="20" t="s">
         <v>220</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2616,11 +2742,11 @@
       <c r="E7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>221</v>
       </c>
@@ -2636,11 +2762,11 @@
       <c r="E8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>222</v>
       </c>
@@ -2656,11 +2782,11 @@
       <c r="E9" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>223</v>
       </c>
@@ -2676,11 +2802,11 @@
       <c r="E10" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>224</v>
       </c>
@@ -2696,8 +2822,8 @@
       <c r="E11" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>286</v>
+      <c r="F11" s="16" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2708,13 +2834,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
@@ -2722,10 +2848,11 @@
     <col min="4" max="4" width="12.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="20.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2744,9 +2871,12 @@
       <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="G1" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2761,11 +2891,14 @@
       <c r="E3" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
@@ -2781,31 +2914,34 @@
       <c r="E4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
@@ -2813,7 +2949,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>107</v>
@@ -2822,10 +2958,10 @@
         <v>245</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>117</v>
       </c>
@@ -2833,7 +2969,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>109</v>
@@ -2842,18 +2978,21 @@
         <v>188</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>107</v>
@@ -2862,20 +3001,20 @@
         <v>247</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>271</v>
       </c>
@@ -2891,10 +3030,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
@@ -2905,7 +3044,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2925,7 +3064,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -2941,11 +3080,11 @@
       <c r="E3" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -2959,13 +3098,13 @@
         <v>250</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -2982,10 +3121,10 @@
         <v>245</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -3001,11 +3140,11 @@
       <c r="E6" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -3021,26 +3160,26 @@
       <c r="E7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -3059,7 +3198,7 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="2" customWidth="1"/>
@@ -3070,7 +3209,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3087,8 +3226,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3098,13 +3237,13 @@
         <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
@@ -3118,10 +3257,10 @@
         <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -3135,11 +3274,11 @@
         <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3152,10 +3291,10 @@
         <v>188</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>89</v>
       </c>
@@ -3164,7 +3303,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>90</v>
       </c>
@@ -3172,7 +3311,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>91</v>
       </c>
@@ -3180,7 +3319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>92</v>
       </c>
@@ -3188,7 +3327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>93</v>
       </c>
@@ -3210,7 +3349,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="16" style="11" customWidth="1"/>
@@ -3218,103 +3357,103 @@
     <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="11" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C6" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -2054,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3029,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="5"/>
+    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="331">
   <si>
     <t>Brama</t>
   </si>
@@ -1008,6 +1008,12 @@
   </si>
   <si>
     <t>rtsp://10.10.51.29:554/live.sdp</t>
+  </si>
+  <si>
+    <t>Ping?</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3027,10 +3033,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3041,10 +3047,11 @@
     <col min="4" max="4" width="6.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3063,8 +3070,11 @@
       <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -3083,8 +3093,11 @@
       <c r="F3" s="15" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -3104,7 +3117,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3124,7 +3137,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -3144,7 +3157,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -3164,22 +3177,22 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="1"/>
+    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2885,7 +2885,7 @@
       <c r="A3" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="20" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2971,7 +2971,7 @@
       <c r="A7" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="20" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="4"/>
+    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="327">
   <si>
     <t>Brama</t>
   </si>
@@ -897,18 +897,6 @@
   </si>
   <si>
     <t>Program B</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>0A</t>
   </si>
   <si>
     <t>86</t>
@@ -1497,7 +1485,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1540,10 +1528,10 @@
         <v>52</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1636,13 +1624,13 @@
         <v>278</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1675,7 +1663,7 @@
         <v>278</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -1725,13 +1713,13 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1757,10 +1745,10 @@
         <v>272</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1781,7 +1769,7 @@
       </c>
       <c r="F4" s="23"/>
       <c r="H4" s="21" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1802,7 +1790,7 @@
       </c>
       <c r="F5" s="23"/>
       <c r="H5" s="21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1816,14 +1804,14 @@
         <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F6" s="23"/>
       <c r="H6" s="21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1844,13 +1832,13 @@
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="16" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1871,13 +1859,13 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1898,7 +1886,7 @@
       </c>
       <c r="F9" s="23"/>
       <c r="H9" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1919,7 +1907,7 @@
       </c>
       <c r="F10" s="23"/>
       <c r="H10" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1933,20 +1921,20 @@
         <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>311</v>
-      </c>
       <c r="I11" s="16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1960,14 +1948,14 @@
         <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="23"/>
       <c r="H12" s="21" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1988,7 +1976,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="H13" s="21" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2002,14 +1990,14 @@
         <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="23"/>
       <c r="H14" s="21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2061,7 +2049,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2170,7 +2158,7 @@
         <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>278</v>
@@ -2190,7 +2178,7 @@
         <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>278</v>
@@ -2210,7 +2198,7 @@
         <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>278</v>
@@ -2230,7 +2218,7 @@
         <v>154</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>278</v>
@@ -2564,7 +2552,7 @@
         <v>287</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2618,7 +2606,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2706,7 +2694,7 @@
         <v>216</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>278</v>
@@ -2842,7 +2830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2878,7 +2866,7 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2901,7 +2889,7 @@
         <v>278</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2938,13 +2926,13 @@
         <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>278</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2987,7 +2975,7 @@
         <v>287</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2995,10 +2983,10 @@
         <v>268</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>107</v>
@@ -3036,7 +3024,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3071,7 +3059,7 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3094,7 +3082,7 @@
         <v>279</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3207,7 +3195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3250,7 +3238,7 @@
         <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>278</v>
@@ -3356,10 +3344,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3397,76 +3385,21 @@
         <v>286</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="6"/>
+    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="331">
   <si>
     <t>Brama</t>
   </si>
@@ -1002,6 +1002,18 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>nie</t>
+  </si>
+  <si>
+    <t>root:---</t>
+  </si>
+  <si>
+    <t>root:Projector</t>
+  </si>
+  <si>
+    <t>user/pass</t>
   </si>
 </sst>
 </file>
@@ -2049,7 +2061,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2533,7 +2545,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2603,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2617,10 +2629,11 @@
     <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2639,8 +2652,11 @@
       <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="20" t="s">
         <v>213</v>
       </c>
@@ -2660,7 +2676,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="20" t="s">
         <v>217</v>
       </c>
@@ -2680,7 +2696,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="20" t="s">
         <v>218</v>
       </c>
@@ -2700,7 +2716,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>219</v>
       </c>
@@ -2720,7 +2736,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="20" t="s">
         <v>220</v>
       </c>
@@ -2739,8 +2755,11 @@
       <c r="F7" s="17" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>221</v>
       </c>
@@ -2760,8 +2779,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="20" t="s">
         <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2779,9 +2798,12 @@
       <c r="F9" s="16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2799,8 +2821,11 @@
       <c r="F10" s="16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>224</v>
       </c>
@@ -2831,7 +2856,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3024,7 +3049,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3144,6 +3169,9 @@
       <c r="F6" s="16" t="s">
         <v>286</v>
       </c>
+      <c r="G6" s="2" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
@@ -3163,6 +3191,9 @@
       </c>
       <c r="F7" s="16" t="s">
         <v>286</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3195,7 +3226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="3"/>
+    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -2060,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2617,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="105" windowWidth="9810" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -1688,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2060,7 +2060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -1688,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -2061,7 +2061,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3226,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="6"/>
+    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="328">
   <si>
     <t>Brama</t>
   </si>
@@ -996,15 +996,6 @@
   </si>
   <si>
     <t>rtsp://10.10.51.29:554/live.sdp</t>
-  </si>
-  <si>
-    <t>Ping?</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>nie</t>
   </si>
   <si>
     <t>root:---</t>
@@ -1098,7 +1089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,6 +1153,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1750,7 +1744,7 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="24" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -1779,7 +1773,7 @@
       <c r="E4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="H4" s="21" t="s">
         <v>306</v>
       </c>
@@ -1800,7 +1794,7 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="H5" s="21" t="s">
         <v>305</v>
       </c>
@@ -1821,7 +1815,7 @@
       <c r="E6" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="23"/>
+      <c r="F6" s="24"/>
       <c r="H6" s="21" t="s">
         <v>309</v>
       </c>
@@ -1842,7 +1836,7 @@
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="23"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="16" t="s">
         <v>301</v>
       </c>
@@ -1869,7 +1863,7 @@
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="16" t="s">
         <v>302</v>
       </c>
@@ -1896,7 +1890,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="23"/>
+      <c r="F9" s="24"/>
       <c r="H9" s="22" t="s">
         <v>311</v>
       </c>
@@ -1917,7 +1911,7 @@
       <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="23"/>
+      <c r="F10" s="24"/>
       <c r="H10" s="2" t="s">
         <v>310</v>
       </c>
@@ -1938,7 +1932,7 @@
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="23"/>
+      <c r="F11" s="24"/>
       <c r="G11" s="16" t="s">
         <v>303</v>
       </c>
@@ -1965,7 +1959,7 @@
       <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="24"/>
       <c r="H12" s="21" t="s">
         <v>312</v>
       </c>
@@ -1986,7 +1980,7 @@
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="24"/>
       <c r="H13" s="21" t="s">
         <v>313</v>
       </c>
@@ -2007,7 +2001,7 @@
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="24"/>
       <c r="H14" s="21" t="s">
         <v>314</v>
       </c>
@@ -2653,7 +2647,7 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2756,7 +2750,7 @@
         <v>279</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2799,7 +2793,7 @@
         <v>286</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2822,7 +2816,7 @@
         <v>286</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2855,8 +2849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2921,7 +2915,7 @@
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2933,7 +2927,7 @@
       <c r="E4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="20" t="s">
         <v>278</v>
       </c>
     </row>
@@ -2941,7 +2935,7 @@
       <c r="A5" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2953,7 +2947,7 @@
       <c r="E5" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="20" t="s">
         <v>278</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2976,7 +2970,7 @@
       <c r="E6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="20" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3007,7 +3001,7 @@
       <c r="A8" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3019,7 +3013,7 @@
       <c r="E8" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="20" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3046,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3064,7 +3058,7 @@
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -3083,11 +3077,8 @@
       <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -3106,11 +3097,8 @@
       <c r="F3" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -3130,7 +3118,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -3150,7 +3138,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -3166,14 +3154,11 @@
       <c r="E6" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -3189,29 +3174,26 @@
       <c r="E7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -3226,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3288,12 +3270,12 @@
       <c r="D4" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="20" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3305,7 +3287,7 @@
       <c r="D5" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="20" t="s">
         <v>286</v>
       </c>
     </row>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="329">
   <si>
     <t>Brama</t>
   </si>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t>user/pass</t>
+  </si>
+  <si>
+    <t>root:Projector1</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2058,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2611,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2772,6 +2775,9 @@
       <c r="F8" s="16" t="s">
         <v>284</v>
       </c>
+      <c r="G8" s="16" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="20" t="s">
@@ -2849,7 +2855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="331">
   <si>
     <t>Brama</t>
   </si>
@@ -1008,6 +1008,12 @@
   </si>
   <si>
     <t>root:Projector1</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>1835NEJ03920</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1165,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1683,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1699,10 +1705,11 @@
     <col min="7" max="7" width="19.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="31.140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="24.7109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1730,8 +1737,11 @@
       <c r="I1" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
@@ -1760,7 +1770,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="20" t="s">
         <v>33</v>
       </c>
@@ -1774,14 +1784,14 @@
         <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="F4" s="24"/>
-      <c r="H4" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="H4" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
@@ -1802,7 +1812,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="20" t="s">
         <v>35</v>
       </c>
@@ -1816,14 +1826,14 @@
         <v>296</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="F6" s="24"/>
       <c r="H6" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
@@ -1850,7 +1860,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="20" t="s">
         <v>37</v>
       </c>
@@ -1877,7 +1887,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="20" t="s">
         <v>38</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="20" t="s">
         <v>39</v>
       </c>
@@ -1919,7 +1929,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="20" t="s">
         <v>40</v>
       </c>
@@ -1939,14 +1949,17 @@
       <c r="G11" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>307</v>
+      <c r="H11" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="16" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="20" t="s">
         <v>53</v>
       </c>
@@ -1967,7 +1980,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="20" t="s">
         <v>54</v>
       </c>
@@ -1988,7 +2001,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="20" t="s">
         <v>55</v>
       </c>
@@ -2009,12 +2022,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>57</v>
       </c>
@@ -2614,7 +2627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="19005" yWindow="165" windowWidth="9810" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Całość" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="332">
   <si>
     <t>Brama</t>
   </si>
@@ -905,9 +905,6 @@
     <t>TS600-04</t>
   </si>
   <si>
-    <t>Sprawdzić, czemu nie pinga jak jest wyłączony</t>
-  </si>
-  <si>
     <t>IP-ID A0</t>
   </si>
   <si>
@@ -1014,6 +1011,12 @@
   </si>
   <si>
     <t>1835NEJ03920</t>
+  </si>
+  <si>
+    <t>Kantyna; Niezaadresowane; Problemy z integracją</t>
+  </si>
+  <si>
+    <t>Showroom; Zaadresowany; Problem z integracją</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1069,7 @@
       <name val="Latoregular"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,6 +1088,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1098,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1162,11 +1171,23 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,7 +1493,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,7 +1521,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1543,10 +1564,10 @@
         <v>52</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1554,7 +1575,7 @@
       <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1569,7 +1590,7 @@
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1584,7 +1605,7 @@
       <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1599,7 +1620,7 @@
       <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1639,13 +1660,13 @@
         <v>278</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="F20" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1653,7 +1674,7 @@
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="26" t="s">
         <v>274</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -1678,7 +1699,7 @@
         <v>278</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1691,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1729,16 +1750,16 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1764,10 +1785,10 @@
         <v>272</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1784,11 +1805,11 @@
         <v>150</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F4" s="24"/>
       <c r="H4" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1809,7 +1830,7 @@
       </c>
       <c r="F5" s="24"/>
       <c r="H5" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1823,14 +1844,14 @@
         <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F6" s="24"/>
       <c r="H6" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1851,13 +1872,13 @@
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1878,13 +1899,13 @@
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1905,7 +1926,7 @@
       </c>
       <c r="F9" s="24"/>
       <c r="H9" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1926,7 +1947,7 @@
       </c>
       <c r="F10" s="24"/>
       <c r="H10" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1940,23 +1961,23 @@
         <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="16" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1970,14 +1991,14 @@
         <v>82</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="24"/>
       <c r="H12" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1998,7 +2019,7 @@
       </c>
       <c r="F13" s="24"/>
       <c r="H13" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2012,14 +2033,14 @@
         <v>84</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="24"/>
       <c r="H14" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2070,8 +2091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2082,11 +2103,11 @@
     <col min="4" max="4" width="11.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="42.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="48" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2105,8 +2126,11 @@
       <c r="F1" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
@@ -2126,7 +2150,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="20" t="s">
         <v>120</v>
       </c>
@@ -2146,7 +2170,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="20" t="s">
         <v>121</v>
       </c>
@@ -2166,8 +2190,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2180,14 +2204,17 @@
         <v>154</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="G6" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2200,14 +2227,15 @@
         <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2220,14 +2248,15 @@
         <v>154</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2240,13 +2269,14 @@
         <v>154</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>126</v>
       </c>
@@ -2266,7 +2296,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>127</v>
       </c>
@@ -2286,7 +2316,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>128</v>
       </c>
@@ -2306,7 +2336,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -2326,7 +2356,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>130</v>
       </c>
@@ -2346,7 +2376,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
         <v>131</v>
       </c>
@@ -2366,7 +2396,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>132</v>
       </c>
@@ -2555,7 +2585,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2574,7 +2604,7 @@
         <v>287</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2618,6 +2648,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G6:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2628,7 +2661,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2663,7 +2696,7 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2720,7 +2753,7 @@
         <v>216</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>278</v>
@@ -2766,11 +2799,11 @@
         <v>279</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="23" t="s">
         <v>221</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2789,7 +2822,7 @@
         <v>284</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2812,7 +2845,7 @@
         <v>286</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2835,7 +2868,7 @@
         <v>286</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2869,7 +2902,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2904,7 +2937,7 @@
         <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2927,7 +2960,7 @@
         <v>278</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2964,20 +2997,20 @@
         <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>278</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="23" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -3013,7 +3046,7 @@
         <v>287</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3228,7 +3261,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3270,14 +3303,14 @@
         <v>104</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="23" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -1107,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1184,6 +1184,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1778,7 +1781,7 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="28" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -1807,7 +1810,7 @@
       <c r="E4" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="28"/>
       <c r="H4" s="22" t="s">
         <v>306</v>
       </c>
@@ -1828,7 +1831,7 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="24"/>
+      <c r="F5" s="28"/>
       <c r="H5" s="21" t="s">
         <v>304</v>
       </c>
@@ -1849,7 +1852,7 @@
       <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="24"/>
+      <c r="F6" s="28"/>
       <c r="H6" s="21" t="s">
         <v>305</v>
       </c>
@@ -1870,7 +1873,7 @@
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="16" t="s">
         <v>300</v>
       </c>
@@ -1897,7 +1900,7 @@
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="16" t="s">
         <v>301</v>
       </c>
@@ -1924,7 +1927,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="24"/>
+      <c r="F9" s="28"/>
       <c r="H9" s="22" t="s">
         <v>310</v>
       </c>
@@ -1945,7 +1948,7 @@
       <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="24"/>
+      <c r="F10" s="28"/>
       <c r="H10" s="2" t="s">
         <v>309</v>
       </c>
@@ -1966,7 +1969,7 @@
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="16" t="s">
         <v>302</v>
       </c>
@@ -1996,7 +1999,7 @@
       <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="24"/>
+      <c r="F12" s="28"/>
       <c r="H12" s="21" t="s">
         <v>311</v>
       </c>
@@ -2017,7 +2020,7 @@
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="28"/>
       <c r="H13" s="21" t="s">
         <v>312</v>
       </c>
@@ -2038,7 +2041,7 @@
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="24"/>
+      <c r="F14" s="28"/>
       <c r="H14" s="21" t="s">
         <v>313</v>
       </c>
@@ -2092,7 +2095,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2209,7 +2212,7 @@
       <c r="F6" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="29" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2232,7 +2235,7 @@
       <c r="F7" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="25" t="s">
@@ -2253,7 +2256,7 @@
       <c r="F8" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
@@ -2274,7 +2277,7 @@
       <c r="F9" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
@@ -2505,7 +2508,7 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="24" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="2" t="s">

--- a/QLoc/doc/Sieć.xlsx
+++ b/QLoc/doc/Sieć.xlsx
@@ -1107,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1184,6 +1184,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1781,7 +1784,7 @@
       <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>278</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -1810,7 +1813,7 @@
       <c r="E4" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="H4" s="22" t="s">
         <v>306</v>
       </c>
@@ -1831,7 +1834,7 @@
       <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="H5" s="21" t="s">
         <v>304</v>
       </c>
@@ -1852,7 +1855,7 @@
       <c r="E6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="H6" s="21" t="s">
         <v>305</v>
       </c>
@@ -1873,7 +1876,7 @@
       <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="16" t="s">
         <v>300</v>
       </c>
@@ -1900,7 +1903,7 @@
       <c r="E8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="16" t="s">
         <v>301</v>
       </c>
@@ -1927,7 +1930,7 @@
       <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="H9" s="22" t="s">
         <v>310</v>
       </c>
@@ -1948,7 +1951,7 @@
       <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="H10" s="2" t="s">
         <v>309</v>
       </c>
@@ -1969,7 +1972,7 @@
       <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="16" t="s">
         <v>302</v>
       </c>
@@ -1999,7 +2002,7 @@
       <c r="E12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="29"/>
       <c r="H12" s="21" t="s">
         <v>311</v>
       </c>
@@ -2020,7 +2023,7 @@
       <c r="E13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="H13" s="21" t="s">
         <v>312</v>
       </c>
@@ -2041,7 +2044,7 @@
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="29"/>
       <c r="H14" s="21" t="s">
         <v>313</v>
       </c>
@@ -2095,7 +2098,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2212,7 +2215,7 @@
       <c r="F6" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="30" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2235,7 +2238,7 @@
       <c r="F7" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="25" t="s">
@@ -2256,7 +2259,7 @@
       <c r="F8" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="25" t="s">
@@ -2277,7 +2280,7 @@
       <c r="F9" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
@@ -2664,7 +2667,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2763,7 +2766,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
